--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_9.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_9.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_0</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9949107889401854</v>
+        <v>0.9463967402407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8183786541584608</v>
+        <v>0.7163856277959887</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7909525941205287</v>
+        <v>0.7781516046819257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981471976434061</v>
+        <v>0.8882261492320939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02118397690229453</v>
+        <v>0.1720818581197576</v>
       </c>
       <c r="G2" t="n">
-        <v>1.214502775931773</v>
+        <v>1.896530612852327</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7477504495658316</v>
+        <v>0.7935388465437001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01264563093743933</v>
+        <v>0.2646873111278878</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2577295955583201</v>
+        <v>1.183001236796261</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1455471638414659</v>
+        <v>0.414827504054104</v>
       </c>
       <c r="L2" t="n">
-        <v>1.325709507828137</v>
+        <v>0.9270083271362723</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1478393861781832</v>
+        <v>0.4213606225675859</v>
       </c>
       <c r="N2" t="n">
-        <v>137.7090203791309</v>
+        <v>37.51956999216288</v>
       </c>
       <c r="O2" t="n">
-        <v>279.0441929223473</v>
+        <v>74.48415358038869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9954783239429739</v>
+        <v>0.9463881072591246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.818305046219814</v>
+        <v>0.7162207465575205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7932927293219793</v>
+        <v>0.7781025327785667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9982907945428454</v>
+        <v>0.8886074910929213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01882159730180078</v>
+        <v>0.1721095724699162</v>
       </c>
       <c r="G3" t="n">
-        <v>1.214994992556437</v>
+        <v>1.897633174453172</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7393799216390782</v>
+        <v>0.7937143738966628</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01166556234695676</v>
+        <v>0.2637842702907915</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2525452965722543</v>
+        <v>1.181496447186821</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1371918266581533</v>
+        <v>0.4148609073772994</v>
       </c>
       <c r="L3" t="n">
-        <v>1.289387267649673</v>
+        <v>0.9269965715868931</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1393524607865063</v>
+        <v>0.4213945519597306</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9455005517092</v>
+        <v>37.51924791150944</v>
       </c>
       <c r="O3" t="n">
-        <v>279.2806730949256</v>
+        <v>74.48383149973526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9955280699123773</v>
+        <v>0.946378448848366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8176834373730876</v>
+        <v>0.716053727457193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7936847686439198</v>
+        <v>0.7780520218087507</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981980744183265</v>
+        <v>0.8889905704877068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01861452837609876</v>
+        <v>0.1721405787422452</v>
       </c>
       <c r="G4" t="n">
-        <v>1.219151693776743</v>
+        <v>1.898750031946114</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7379776197162426</v>
+        <v>0.7938950487069005</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01229838995048714</v>
+        <v>0.2628771148670707</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2545163500745502</v>
+        <v>1.17998622912041</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1364350701839478</v>
+        <v>0.4148982751738614</v>
       </c>
       <c r="L4" t="n">
-        <v>1.286203525607853</v>
+        <v>0.9269834197084132</v>
       </c>
       <c r="M4" t="n">
-        <v>0.138583786154311</v>
+        <v>0.4214325082617343</v>
       </c>
       <c r="N4" t="n">
-        <v>137.9676258153403</v>
+        <v>37.51888763544503</v>
       </c>
       <c r="O4" t="n">
-        <v>279.3027983585566</v>
+        <v>74.48347122367085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9958244942803886</v>
+        <v>0.9463677726396753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.816742148446602</v>
+        <v>0.715884532552141</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7852356761970414</v>
+        <v>0.7779999811233919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.998068456200466</v>
+        <v>0.8893758031977911</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01738065403066045</v>
+        <v>0.1721748524382371</v>
       </c>
       <c r="G5" t="n">
-        <v>1.225446097162389</v>
+        <v>1.899881439055268</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7681995334921987</v>
+        <v>0.7940811952209368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01318305211642132</v>
+        <v>0.2619648602610945</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2700540300848106</v>
+        <v>1.178473396806568</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1318357084808985</v>
+        <v>0.414939576852145</v>
       </c>
       <c r="L5" t="n">
-        <v>1.267232366055133</v>
+        <v>0.9269688818923238</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1339119891021136</v>
+        <v>0.4214744604001644</v>
       </c>
       <c r="N5" t="n">
-        <v>138.1047950572593</v>
+        <v>37.51848946919395</v>
       </c>
       <c r="O5" t="n">
-        <v>279.4399676004757</v>
+        <v>74.48307305741977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9957873688755233</v>
+        <v>0.9463560062184757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8166337288447496</v>
+        <v>0.7157131201534623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7928569079405363</v>
+        <v>0.777946441905635</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982195489071202</v>
+        <v>0.8897628960856706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01753518951954235</v>
+        <v>0.1722126260294803</v>
       </c>
       <c r="G6" t="n">
-        <v>1.226171099539202</v>
+        <v>1.901027674554514</v>
       </c>
       <c r="H6" t="n">
-        <v>0.740938829450124</v>
+        <v>0.794272701898471</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01215182361064589</v>
+        <v>0.2610482006403902</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2628697672374298</v>
+        <v>1.176956710368392</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1324205026404233</v>
+        <v>0.4149850913339904</v>
       </c>
       <c r="L6" t="n">
-        <v>1.269608391966507</v>
+        <v>0.9269528595315414</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1345059931850712</v>
+        <v>0.421520691689601</v>
       </c>
       <c r="N6" t="n">
-        <v>138.0870911747528</v>
+        <v>37.51805073557259</v>
       </c>
       <c r="O6" t="n">
-        <v>279.4222637179692</v>
+        <v>74.48263432379841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9957559304637383</v>
+        <v>0.9463432119586426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8157149423487925</v>
+        <v>0.7155394380377448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7854832312174157</v>
+        <v>0.7778915556265271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9977300543979627</v>
+        <v>0.8901522801091132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01766605274790369</v>
+        <v>0.1722536992779214</v>
       </c>
       <c r="G7" t="n">
-        <v>1.23231502906829</v>
+        <v>1.90218908766205</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7673140435383845</v>
+        <v>0.7944690269363501</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01549269096580661</v>
+        <v>0.2601261154706203</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2627823428514102</v>
+        <v>1.175437502232725</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1329137041388272</v>
+        <v>0.4150345760029173</v>
       </c>
       <c r="L7" t="n">
-        <v>1.271620450320746</v>
+        <v>0.9269354375607047</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1350069621140544</v>
+        <v>0.4215709556925971</v>
       </c>
       <c r="N7" t="n">
-        <v>138.0722208096412</v>
+        <v>37.51757378620926</v>
       </c>
       <c r="O7" t="n">
-        <v>279.4073933528576</v>
+        <v>74.48215737443509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9958922903405759</v>
+        <v>0.9463293064484516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8156889040759913</v>
+        <v>0.715363516212503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7860496506860264</v>
+        <v>0.7778351117006674</v>
       </c>
       <c r="E8" t="n">
-        <v>0.997695164741788</v>
+        <v>0.8905435284451102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01709845112019058</v>
+        <v>0.1722983399591509</v>
       </c>
       <c r="G8" t="n">
-        <v>1.232489147118407</v>
+        <v>1.903365477717487</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7652879939420518</v>
+        <v>0.7946709235863436</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01573081766828428</v>
+        <v>0.2591996154947597</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2584512491293104</v>
+        <v>1.173913010231962</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1307610458821379</v>
+        <v>0.4150883519916584</v>
       </c>
       <c r="L8" t="n">
-        <v>1.262893418203141</v>
+        <v>0.9269165023978916</v>
       </c>
       <c r="M8" t="n">
-        <v>0.132820401641691</v>
+        <v>0.4216255785994046</v>
       </c>
       <c r="N8" t="n">
-        <v>138.1375347946851</v>
+        <v>37.51705554018085</v>
       </c>
       <c r="O8" t="n">
-        <v>279.4727073379015</v>
+        <v>74.48163912840667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.995818249853029</v>
+        <v>0.9463142868218257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8156543134360906</v>
+        <v>0.7151852920056339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7857580332075046</v>
+        <v>0.7777772202483761</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976943314984469</v>
+        <v>0.8909368754339825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0174066466262507</v>
+        <v>0.1723465572740986</v>
       </c>
       <c r="G9" t="n">
-        <v>1.232720454886698</v>
+        <v>1.904557263809469</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7663310927537714</v>
+        <v>0.7948779979544502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01573650466870053</v>
+        <v>0.2582681457806039</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2592210988508435</v>
+        <v>1.172384338959331</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1319342511490125</v>
+        <v>0.4151464287141329</v>
       </c>
       <c r="L9" t="n">
-        <v>1.267632009406142</v>
+        <v>0.9268960501403585</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1340120837187438</v>
+        <v>0.4216845699722026</v>
       </c>
       <c r="N9" t="n">
-        <v>138.1018063113737</v>
+        <v>37.51649592283965</v>
       </c>
       <c r="O9" t="n">
-        <v>279.4369788545901</v>
+        <v>74.48107951106546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.996181365948387</v>
+        <v>0.9462980666975273</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8156039040790622</v>
+        <v>0.7150047148406065</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7870468017296385</v>
+        <v>0.7777176447834704</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9975705485464056</v>
+        <v>0.8913322543755312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01589516618527367</v>
+        <v>0.172398628531346</v>
       </c>
       <c r="G10" t="n">
-        <v>1.233057542489261</v>
+        <v>1.905764784143488</v>
       </c>
       <c r="H10" t="n">
-        <v>0.761721242477191</v>
+        <v>0.7950910959380341</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0165813403427756</v>
+        <v>0.2573318642783013</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2636846567623472</v>
+        <v>1.170852857274226</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1260760333500133</v>
+        <v>0.4152091383042357</v>
       </c>
       <c r="L10" t="n">
-        <v>1.244392579303231</v>
+        <v>0.9268739631625903</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1280616048454798</v>
+        <v>0.421748267175663</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2834804589644</v>
+        <v>37.51589175187758</v>
       </c>
       <c r="O10" t="n">
-        <v>279.6186530021808</v>
+        <v>74.48047534010341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.996100711468214</v>
+        <v>0.9462806526882813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8154487429597124</v>
+        <v>0.7148217859554549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7870640592207514</v>
+        <v>0.7776564279710094</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9975549855703889</v>
+        <v>0.891729647489626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01623089261221272</v>
+        <v>0.1724545325021457</v>
       </c>
       <c r="G11" t="n">
-        <v>1.234095105608804</v>
+        <v>1.906988030440807</v>
       </c>
       <c r="H11" t="n">
-        <v>0.761659513432127</v>
+        <v>0.7953100649266522</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01668755979478312</v>
+        <v>0.2563908130922873</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2641150085502726</v>
+        <v>1.169318641006508</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1274005204550308</v>
+        <v>0.4152764531034063</v>
       </c>
       <c r="L11" t="n">
-        <v>1.249554466034304</v>
+        <v>0.926850250469149</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1294069512984</v>
+        <v>0.4218166421156304</v>
       </c>
       <c r="N11" t="n">
-        <v>138.2416778025924</v>
+        <v>37.51524331390333</v>
       </c>
       <c r="O11" t="n">
-        <v>279.5768503458088</v>
+        <v>74.47982690212915</v>
       </c>
     </row>
   </sheetData>
